--- a/หจก New Procurement Form.xlsx
+++ b/หจก New Procurement Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhasitWo\Desktop\Folders\ElectronProject\mydoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E490AD-747F-466C-98E6-DFBF50D68AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA41AD28-8EF8-46EB-A58D-1BC3747A92C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="867" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="867" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="11" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="185">
   <si>
     <t>บันทึกข้อความ</t>
   </si>
@@ -641,6 +641,9 @@
   <si>
     <t xml:space="preserve">             ด้วยNAMEมีความประสงค์จะขอ ( / ) ซื้อพัสดุ (  ) จ้างพัสดุ..BUY... </t>
   </si>
+  <si>
+    <t>อย่าแตะ cell นี้</t>
+  </si>
 </sst>
 </file>
 
@@ -1137,15 +1140,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1158,16 +1152,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1648,10 +1651,10 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
@@ -1660,7 +1663,7 @@
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="76" t="s">
         <v>152</v>
       </c>
@@ -1668,8 +1671,11 @@
         <f ca="1">COUNTIF(INDIRECT("แนบท้ายบันทึกStartHere!$B$4:$B$33"),"&lt;&gt;")+COUNTIF(INDIRECT("แนบท้ายบันทึกStartHere!$B$43:$B$71"),"&lt;&gt;")+COUNTIF(INDIRECT("แนบท้ายบันทึกStartHere!$B$81:$B$109"),"&lt;&gt;")+COUNTIF(INDIRECT("แนบท้ายบันทึกStartHere!$B$119:$B$147"),"&lt;&gt;")+COUNTIF(INDIRECT("แนบท้ายบันทึกStartHere!$B$157:$B$185"),"&lt;&gt;")+COUNTIF(INDIRECT("แนบท้ายบันทึกStartHere!$B$195:$B$223"),"&lt;&gt;")+COUNTIF(INDIRECT("แนบท้ายบันทึกStartHere!$B$233:$B$261"),"&lt;&gt;")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="C1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="76" t="s">
         <v>155</v>
       </c>
@@ -1677,8 +1683,11 @@
         <f>MAX(IF(ISERROR(แนบท้ายบันทึกStartHere!F34),0,แนบท้ายบันทึกStartHere!F34),IF(ISERROR(แนบท้ายบันทึกStartHere!F72),0,แนบท้ายบันทึกStartHere!F72),IF(ISERROR(แนบท้ายบันทึกStartHere!F110),0,แนบท้ายบันทึกStartHere!F110),IF(ISERROR(แนบท้ายบันทึกStartHere!F148),0,แนบท้ายบันทึกStartHere!F148),IF(ISERROR(แนบท้ายบันทึกStartHere!F186),0,แนบท้ายบันทึกStartHere!F186),IF(ISERROR(แนบท้ายบันทึกStartHere!F224),0,แนบท้ายบันทึกStartHere!F224),IF(ISERROR(แนบท้ายบันทึกStartHere!F262),0,แนบท้ายบันทึกStartHere!F262))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="C2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="76" t="s">
         <v>156</v>
       </c>
@@ -1686,7 +1695,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" s="76" t="s">
         <v>157</v>
       </c>
@@ -1694,7 +1703,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="76" t="s">
         <v>158</v>
       </c>
@@ -1702,7 +1711,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="76" t="s">
         <v>160</v>
       </c>
@@ -1710,7 +1719,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" s="76" t="s">
         <v>161</v>
       </c>
@@ -1718,7 +1727,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="76" t="s">
         <v>159</v>
       </c>
@@ -2259,15 +2268,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G2" s="46" t="str">
@@ -2282,7 +2291,7 @@
       <c r="B3" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D3" s="97"/>
@@ -3108,11 +3117,11 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34" s="64"/>
-      <c r="B34" s="95" t="str">
+      <c r="B34" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F34)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C34" s="96"/>
+      <c r="C34" s="98"/>
       <c r="D34" s="97"/>
       <c r="E34" s="47" t="str">
         <f>+แนบท้ายบันทึกStartHere!E34</f>
@@ -3147,15 +3156,15 @@
       <c r="G38" s="69"/>
     </row>
     <row r="39" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G40" s="46" t="str">
@@ -3170,7 +3179,7 @@
       <c r="B41" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="95" t="s">
+      <c r="C41" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D41" s="97"/>
@@ -3983,11 +3992,11 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A72" s="64"/>
-      <c r="B72" s="95" t="str">
+      <c r="B72" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F72)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C72" s="96"/>
+      <c r="C72" s="98"/>
       <c r="D72" s="97"/>
       <c r="E72" s="47" t="str">
         <f>+แนบท้ายบันทึกStartHere!E72</f>
@@ -4018,15 +4027,15 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A77" s="98" t="s">
+      <c r="A77" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="B77" s="98"/>
-      <c r="C77" s="98"/>
-      <c r="D77" s="98"/>
-      <c r="E77" s="98"/>
-      <c r="F77" s="98"/>
-      <c r="G77" s="98"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="95"/>
+      <c r="D77" s="95"/>
+      <c r="E77" s="95"/>
+      <c r="F77" s="95"/>
+      <c r="G77" s="95"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G78" s="46" t="str">
@@ -4041,7 +4050,7 @@
       <c r="B79" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="95" t="s">
+      <c r="C79" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D79" s="97"/>
@@ -4854,11 +4863,11 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A110" s="64"/>
-      <c r="B110" s="95" t="str">
+      <c r="B110" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F110)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C110" s="96"/>
+      <c r="C110" s="98"/>
       <c r="D110" s="97"/>
       <c r="E110" s="47" t="str">
         <f>+แนบท้ายบันทึกStartHere!E110</f>
@@ -4889,15 +4898,15 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A115" s="98" t="s">
+      <c r="A115" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="B115" s="98"/>
-      <c r="C115" s="98"/>
-      <c r="D115" s="98"/>
-      <c r="E115" s="98"/>
-      <c r="F115" s="98"/>
-      <c r="G115" s="98"/>
+      <c r="B115" s="95"/>
+      <c r="C115" s="95"/>
+      <c r="D115" s="95"/>
+      <c r="E115" s="95"/>
+      <c r="F115" s="95"/>
+      <c r="G115" s="95"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G116" s="46" t="str">
@@ -4912,7 +4921,7 @@
       <c r="B117" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C117" s="95" t="s">
+      <c r="C117" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D117" s="97"/>
@@ -5725,11 +5734,11 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A148" s="64"/>
-      <c r="B148" s="95" t="str">
+      <c r="B148" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F148)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C148" s="96"/>
+      <c r="C148" s="98"/>
       <c r="D148" s="97"/>
       <c r="E148" s="47" t="str">
         <f>+แนบท้ายบันทึกStartHere!E148</f>
@@ -5760,15 +5769,15 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A153" s="98" t="s">
+      <c r="A153" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="B153" s="98"/>
-      <c r="C153" s="98"/>
-      <c r="D153" s="98"/>
-      <c r="E153" s="98"/>
-      <c r="F153" s="98"/>
-      <c r="G153" s="98"/>
+      <c r="B153" s="95"/>
+      <c r="C153" s="95"/>
+      <c r="D153" s="95"/>
+      <c r="E153" s="95"/>
+      <c r="F153" s="95"/>
+      <c r="G153" s="95"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G154" s="46" t="str">
@@ -5783,7 +5792,7 @@
       <c r="B155" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C155" s="95" t="s">
+      <c r="C155" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D155" s="97"/>
@@ -6596,11 +6605,11 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A186" s="64"/>
-      <c r="B186" s="95" t="str">
+      <c r="B186" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F186)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C186" s="96"/>
+      <c r="C186" s="98"/>
       <c r="D186" s="97"/>
       <c r="E186" s="47" t="str">
         <f>+แนบท้ายบันทึกStartHere!E186</f>
@@ -6631,15 +6640,15 @@
       </c>
     </row>
     <row r="191" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A191" s="98" t="s">
+      <c r="A191" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="B191" s="98"/>
-      <c r="C191" s="98"/>
-      <c r="D191" s="98"/>
-      <c r="E191" s="98"/>
-      <c r="F191" s="98"/>
-      <c r="G191" s="98"/>
+      <c r="B191" s="95"/>
+      <c r="C191" s="95"/>
+      <c r="D191" s="95"/>
+      <c r="E191" s="95"/>
+      <c r="F191" s="95"/>
+      <c r="G191" s="95"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G192" s="46" t="str">
@@ -6654,7 +6663,7 @@
       <c r="B193" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C193" s="95" t="s">
+      <c r="C193" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D193" s="97"/>
@@ -7467,11 +7476,11 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A224" s="64"/>
-      <c r="B224" s="95" t="str">
+      <c r="B224" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F224)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C224" s="96"/>
+      <c r="C224" s="98"/>
       <c r="D224" s="97"/>
       <c r="E224" s="47" t="str">
         <f>+แนบท้ายบันทึกStartHere!E224</f>
@@ -7502,15 +7511,15 @@
       </c>
     </row>
     <row r="229" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A229" s="98" t="s">
+      <c r="A229" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="B229" s="98"/>
-      <c r="C229" s="98"/>
-      <c r="D229" s="98"/>
-      <c r="E229" s="98"/>
-      <c r="F229" s="98"/>
-      <c r="G229" s="98"/>
+      <c r="B229" s="95"/>
+      <c r="C229" s="95"/>
+      <c r="D229" s="95"/>
+      <c r="E229" s="95"/>
+      <c r="F229" s="95"/>
+      <c r="G229" s="95"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G230" s="46" t="str">
@@ -7525,7 +7534,7 @@
       <c r="B231" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C231" s="95" t="s">
+      <c r="C231" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D231" s="97"/>
@@ -8338,11 +8347,11 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A262" s="64"/>
-      <c r="B262" s="95" t="str">
+      <c r="B262" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F262)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C262" s="96"/>
+      <c r="C262" s="98"/>
       <c r="D262" s="97"/>
       <c r="E262" s="47" t="str">
         <f>+แนบท้ายบันทึกStartHere!E262</f>
@@ -8374,6 +8383,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B224:D224"/>
+    <mergeCell ref="A229:G229"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="B262:D262"/>
+    <mergeCell ref="A191:G191"/>
+    <mergeCell ref="C193:D193"/>
     <mergeCell ref="A153:G153"/>
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="B186:D186"/>
@@ -8389,12 +8404,6 @@
     <mergeCell ref="B110:D110"/>
     <mergeCell ref="A115:G115"/>
     <mergeCell ref="C117:D117"/>
-    <mergeCell ref="B224:D224"/>
-    <mergeCell ref="A229:G229"/>
-    <mergeCell ref="C231:D231"/>
-    <mergeCell ref="B262:D262"/>
-    <mergeCell ref="A191:G191"/>
-    <mergeCell ref="C193:D193"/>
   </mergeCells>
   <pageMargins left="0.46" right="0.28999999999999998" top="0.37" bottom="0.51" header="0.16" footer="0.28000000000000003"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="180" r:id="rId1"/>
@@ -9198,7 +9207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -11025,10 +11034,10 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="8" t="s">
         <v>78</v>
       </c>
@@ -11041,10 +11050,10 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="94"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="11" t="s">
         <v>81</v>
       </c>
@@ -11494,12 +11503,12 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="90" t="str">
+      <c r="B29" s="92" t="str">
         <f>"( "&amp;BAHTTEXT(F29)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
       <c r="E29" s="27" t="s">
         <v>84</v>
       </c>
@@ -11603,10 +11612,10 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="92"/>
+      <c r="C42" s="89"/>
       <c r="D42" s="8" t="s">
         <v>78</v>
       </c>
@@ -11619,10 +11628,10 @@
       <c r="G42" s="10"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="88" t="s">
+      <c r="B43" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="89"/>
+      <c r="C43" s="94"/>
       <c r="D43" s="11" t="s">
         <v>81</v>
       </c>
@@ -12062,12 +12071,12 @@
       <c r="G62" s="16"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="90" t="str">
+      <c r="B63" s="92" t="str">
         <f>"( "&amp;BAHTTEXT(F63)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C63" s="90"/>
-      <c r="D63" s="90"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="92"/>
       <c r="E63" s="27" t="s">
         <v>84</v>
       </c>
@@ -12171,10 +12180,10 @@
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="91" t="s">
+      <c r="B76" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="92"/>
+      <c r="C76" s="89"/>
       <c r="D76" s="8" t="s">
         <v>78</v>
       </c>
@@ -12187,10 +12196,10 @@
       <c r="G76" s="10"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="88" t="s">
+      <c r="B77" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="89"/>
+      <c r="C77" s="94"/>
       <c r="D77" s="11" t="s">
         <v>81</v>
       </c>
@@ -12630,12 +12639,12 @@
       <c r="G96" s="16"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B97" s="90" t="str">
+      <c r="B97" s="92" t="str">
         <f>"( "&amp;BAHTTEXT(F97)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C97" s="90"/>
-      <c r="D97" s="90"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="92"/>
       <c r="E97" s="27" t="s">
         <v>84</v>
       </c>
@@ -12739,10 +12748,10 @@
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B110" s="91" t="s">
+      <c r="B110" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C110" s="92"/>
+      <c r="C110" s="89"/>
       <c r="D110" s="8" t="s">
         <v>78</v>
       </c>
@@ -12755,10 +12764,10 @@
       <c r="G110" s="10"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B111" s="88" t="s">
+      <c r="B111" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C111" s="89"/>
+      <c r="C111" s="94"/>
       <c r="D111" s="11" t="s">
         <v>81</v>
       </c>
@@ -13198,12 +13207,12 @@
       <c r="G130" s="16"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B131" s="90" t="str">
+      <c r="B131" s="92" t="str">
         <f>"( "&amp;BAHTTEXT(F131)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C131" s="90"/>
-      <c r="D131" s="90"/>
+      <c r="C131" s="92"/>
+      <c r="D131" s="92"/>
       <c r="E131" s="27" t="s">
         <v>84</v>
       </c>
@@ -13307,10 +13316,10 @@
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B144" s="91" t="s">
+      <c r="B144" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C144" s="92"/>
+      <c r="C144" s="89"/>
       <c r="D144" s="8" t="s">
         <v>78</v>
       </c>
@@ -13323,10 +13332,10 @@
       <c r="G144" s="10"/>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B145" s="88" t="s">
+      <c r="B145" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C145" s="89"/>
+      <c r="C145" s="94"/>
       <c r="D145" s="11" t="s">
         <v>81</v>
       </c>
@@ -13766,12 +13775,12 @@
       <c r="G164" s="16"/>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B165" s="90" t="str">
+      <c r="B165" s="92" t="str">
         <f>"( "&amp;BAHTTEXT(F165)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C165" s="90"/>
-      <c r="D165" s="90"/>
+      <c r="C165" s="92"/>
+      <c r="D165" s="92"/>
       <c r="E165" s="27" t="s">
         <v>84</v>
       </c>
@@ -13875,10 +13884,10 @@
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B178" s="91" t="s">
+      <c r="B178" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C178" s="92"/>
+      <c r="C178" s="89"/>
       <c r="D178" s="8" t="s">
         <v>78</v>
       </c>
@@ -13891,10 +13900,10 @@
       <c r="G178" s="10"/>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B179" s="88" t="s">
+      <c r="B179" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C179" s="89"/>
+      <c r="C179" s="94"/>
       <c r="D179" s="11" t="s">
         <v>81</v>
       </c>
@@ -14334,12 +14343,12 @@
       <c r="G198" s="16"/>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B199" s="90" t="str">
+      <c r="B199" s="92" t="str">
         <f>"( "&amp;BAHTTEXT(F199)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C199" s="90"/>
-      <c r="D199" s="90"/>
+      <c r="C199" s="92"/>
+      <c r="D199" s="92"/>
       <c r="E199" s="27" t="s">
         <v>84</v>
       </c>
@@ -14443,10 +14452,10 @@
       </c>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B212" s="91" t="s">
+      <c r="B212" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C212" s="92"/>
+      <c r="C212" s="89"/>
       <c r="D212" s="8" t="s">
         <v>78</v>
       </c>
@@ -14459,10 +14468,10 @@
       <c r="G212" s="10"/>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B213" s="88" t="s">
+      <c r="B213" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C213" s="89"/>
+      <c r="C213" s="94"/>
       <c r="D213" s="11" t="s">
         <v>81</v>
       </c>
@@ -14902,12 +14911,12 @@
       <c r="G232" s="16"/>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B233" s="90" t="str">
+      <c r="B233" s="92" t="str">
         <f>"( "&amp;BAHTTEXT(F233)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C233" s="90"/>
-      <c r="D233" s="90"/>
+      <c r="C233" s="92"/>
+      <c r="D233" s="92"/>
       <c r="E233" s="27" t="s">
         <v>84</v>
       </c>
@@ -15011,10 +15020,10 @@
       </c>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B246" s="91" t="s">
+      <c r="B246" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C246" s="92"/>
+      <c r="C246" s="89"/>
       <c r="D246" s="8" t="s">
         <v>78</v>
       </c>
@@ -15027,10 +15036,10 @@
       <c r="G246" s="10"/>
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B247" s="88" t="s">
+      <c r="B247" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C247" s="89"/>
+      <c r="C247" s="94"/>
       <c r="D247" s="11" t="s">
         <v>81</v>
       </c>
@@ -15470,12 +15479,12 @@
       <c r="G266" s="16"/>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B267" s="90" t="str">
+      <c r="B267" s="92" t="str">
         <f>"( "&amp;BAHTTEXT(F267)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C267" s="90"/>
-      <c r="D267" s="90"/>
+      <c r="C267" s="92"/>
+      <c r="D267" s="92"/>
       <c r="E267" s="27" t="s">
         <v>84</v>
       </c>
@@ -15579,10 +15588,10 @@
       </c>
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B280" s="91" t="s">
+      <c r="B280" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C280" s="92"/>
+      <c r="C280" s="89"/>
       <c r="D280" s="8" t="s">
         <v>78</v>
       </c>
@@ -15595,10 +15604,10 @@
       <c r="G280" s="10"/>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B281" s="88" t="s">
+      <c r="B281" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C281" s="89"/>
+      <c r="C281" s="94"/>
       <c r="D281" s="11" t="s">
         <v>81</v>
       </c>
@@ -16038,12 +16047,12 @@
       <c r="G300" s="16"/>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B301" s="90" t="str">
+      <c r="B301" s="92" t="str">
         <f>"( "&amp;BAHTTEXT(F301)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C301" s="90"/>
-      <c r="D301" s="90"/>
+      <c r="C301" s="92"/>
+      <c r="D301" s="92"/>
       <c r="E301" s="27" t="s">
         <v>84</v>
       </c>
@@ -16147,10 +16156,10 @@
       </c>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B314" s="91" t="s">
+      <c r="B314" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C314" s="92"/>
+      <c r="C314" s="89"/>
       <c r="D314" s="8" t="s">
         <v>78</v>
       </c>
@@ -16163,10 +16172,10 @@
       <c r="G314" s="10"/>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B315" s="88" t="s">
+      <c r="B315" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C315" s="89"/>
+      <c r="C315" s="94"/>
       <c r="D315" s="11" t="s">
         <v>81</v>
       </c>
@@ -16606,12 +16615,12 @@
       <c r="G334" s="16"/>
     </row>
     <row r="335" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B335" s="90" t="str">
+      <c r="B335" s="92" t="str">
         <f>"( "&amp;BAHTTEXT(F335)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C335" s="90"/>
-      <c r="D335" s="90"/>
+      <c r="C335" s="92"/>
+      <c r="D335" s="92"/>
       <c r="E335" s="27" t="s">
         <v>84</v>
       </c>
@@ -16715,10 +16724,10 @@
       </c>
     </row>
     <row r="348" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B348" s="91" t="s">
+      <c r="B348" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C348" s="92"/>
+      <c r="C348" s="89"/>
       <c r="D348" s="8" t="s">
         <v>78</v>
       </c>
@@ -16731,10 +16740,10 @@
       <c r="G348" s="10"/>
     </row>
     <row r="349" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B349" s="88" t="s">
+      <c r="B349" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C349" s="89"/>
+      <c r="C349" s="94"/>
       <c r="D349" s="11" t="s">
         <v>81</v>
       </c>
@@ -17174,12 +17183,12 @@
       <c r="G368" s="16"/>
     </row>
     <row r="369" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B369" s="90" t="str">
+      <c r="B369" s="92" t="str">
         <f>"( "&amp;BAHTTEXT(F369)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C369" s="90"/>
-      <c r="D369" s="90"/>
+      <c r="C369" s="92"/>
+      <c r="D369" s="92"/>
       <c r="E369" s="27" t="s">
         <v>84</v>
       </c>
@@ -17283,10 +17292,10 @@
       </c>
     </row>
     <row r="382" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B382" s="91" t="s">
+      <c r="B382" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C382" s="92"/>
+      <c r="C382" s="89"/>
       <c r="D382" s="8" t="s">
         <v>78</v>
       </c>
@@ -17299,10 +17308,10 @@
       <c r="G382" s="10"/>
     </row>
     <row r="383" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B383" s="88" t="s">
+      <c r="B383" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C383" s="89"/>
+      <c r="C383" s="94"/>
       <c r="D383" s="11" t="s">
         <v>81</v>
       </c>
@@ -17574,12 +17583,12 @@
       <c r="G402" s="16"/>
     </row>
     <row r="403" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B403" s="90" t="str">
+      <c r="B403" s="92" t="str">
         <f>"( "&amp;BAHTTEXT(F403)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C403" s="90"/>
-      <c r="D403" s="90"/>
+      <c r="C403" s="92"/>
+      <c r="D403" s="92"/>
       <c r="E403" s="27" t="s">
         <v>84</v>
       </c>
@@ -17614,6 +17623,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B383:C383"/>
+    <mergeCell ref="B403:D403"/>
+    <mergeCell ref="B335:D335"/>
+    <mergeCell ref="B348:C348"/>
+    <mergeCell ref="B349:C349"/>
+    <mergeCell ref="B369:D369"/>
+    <mergeCell ref="B382:C382"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B314:C314"/>
+    <mergeCell ref="B315:C315"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B233:D233"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B29:D29"/>
@@ -17630,26 +17659,6 @@
     <mergeCell ref="B165:D165"/>
     <mergeCell ref="B145:C145"/>
     <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="B199:D199"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B233:D233"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B314:C314"/>
-    <mergeCell ref="B315:C315"/>
-    <mergeCell ref="B383:C383"/>
-    <mergeCell ref="B403:D403"/>
-    <mergeCell ref="B335:D335"/>
-    <mergeCell ref="B348:C348"/>
-    <mergeCell ref="B349:C349"/>
-    <mergeCell ref="B369:D369"/>
-    <mergeCell ref="B382:C382"/>
   </mergeCells>
   <pageMargins left="0.44" right="0.7" top="0.46" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -18184,15 +18193,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G2" s="46" t="str">
@@ -18207,7 +18216,7 @@
       <c r="B3" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D3" s="97"/>
@@ -18673,11 +18682,11 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34" s="64"/>
-      <c r="B34" s="95" t="str">
+      <c r="B34" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F34)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C34" s="96"/>
+      <c r="C34" s="98"/>
       <c r="D34" s="97"/>
       <c r="E34" s="47" t="str">
         <f>IF(ISERROR(F42),"รวม","ยอดยกไป")</f>
@@ -18712,15 +18721,15 @@
       <c r="G38" s="69"/>
     </row>
     <row r="39" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G40" s="46" t="str">
@@ -18735,7 +18744,7 @@
       <c r="B41" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="95" t="s">
+      <c r="C41" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D41" s="97"/>
@@ -19200,11 +19209,11 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A72" s="64"/>
-      <c r="B72" s="95" t="str">
+      <c r="B72" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F72)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C72" s="96"/>
+      <c r="C72" s="98"/>
       <c r="D72" s="97"/>
       <c r="E72" s="47" t="str">
         <f>IF(ISERROR(F80),"รวม","ยอดยกไป")</f>
@@ -19235,15 +19244,15 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A77" s="98" t="s">
+      <c r="A77" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="B77" s="98"/>
-      <c r="C77" s="98"/>
-      <c r="D77" s="98"/>
-      <c r="E77" s="98"/>
-      <c r="F77" s="98"/>
-      <c r="G77" s="98"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="95"/>
+      <c r="D77" s="95"/>
+      <c r="E77" s="95"/>
+      <c r="F77" s="95"/>
+      <c r="G77" s="95"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G78" s="46" t="str">
@@ -19258,7 +19267,7 @@
       <c r="B79" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="95" t="s">
+      <c r="C79" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D79" s="97"/>
@@ -19723,11 +19732,11 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A110" s="64"/>
-      <c r="B110" s="95" t="str">
+      <c r="B110" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F110)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C110" s="96"/>
+      <c r="C110" s="98"/>
       <c r="D110" s="97"/>
       <c r="E110" s="47" t="str">
         <f>IF(ISERROR(F118),"รวม","ยอดยกไป")</f>
@@ -19758,15 +19767,15 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A115" s="98" t="s">
+      <c r="A115" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="B115" s="98"/>
-      <c r="C115" s="98"/>
-      <c r="D115" s="98"/>
-      <c r="E115" s="98"/>
-      <c r="F115" s="98"/>
-      <c r="G115" s="98"/>
+      <c r="B115" s="95"/>
+      <c r="C115" s="95"/>
+      <c r="D115" s="95"/>
+      <c r="E115" s="95"/>
+      <c r="F115" s="95"/>
+      <c r="G115" s="95"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G116" s="46" t="str">
@@ -19781,7 +19790,7 @@
       <c r="B117" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C117" s="95" t="s">
+      <c r="C117" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D117" s="97"/>
@@ -20246,11 +20255,11 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A148" s="64"/>
-      <c r="B148" s="95" t="str">
+      <c r="B148" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F148)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C148" s="96"/>
+      <c r="C148" s="98"/>
       <c r="D148" s="97"/>
       <c r="E148" s="47" t="str">
         <f>IF(ISERROR(F156),"รวม","ยอดยกไป")</f>
@@ -20281,15 +20290,15 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A153" s="98" t="s">
+      <c r="A153" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="B153" s="98"/>
-      <c r="C153" s="98"/>
-      <c r="D153" s="98"/>
-      <c r="E153" s="98"/>
-      <c r="F153" s="98"/>
-      <c r="G153" s="98"/>
+      <c r="B153" s="95"/>
+      <c r="C153" s="95"/>
+      <c r="D153" s="95"/>
+      <c r="E153" s="95"/>
+      <c r="F153" s="95"/>
+      <c r="G153" s="95"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G154" s="46" t="str">
@@ -20304,7 +20313,7 @@
       <c r="B155" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C155" s="95" t="s">
+      <c r="C155" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D155" s="97"/>
@@ -20769,11 +20778,11 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A186" s="64"/>
-      <c r="B186" s="95" t="str">
+      <c r="B186" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F186)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C186" s="96"/>
+      <c r="C186" s="98"/>
       <c r="D186" s="97"/>
       <c r="E186" s="47" t="str">
         <f>IF(ISERROR(F194),"รวม","ยอดยกไป")</f>
@@ -20804,15 +20813,15 @@
       </c>
     </row>
     <row r="191" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A191" s="98" t="s">
+      <c r="A191" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="B191" s="98"/>
-      <c r="C191" s="98"/>
-      <c r="D191" s="98"/>
-      <c r="E191" s="98"/>
-      <c r="F191" s="98"/>
-      <c r="G191" s="98"/>
+      <c r="B191" s="95"/>
+      <c r="C191" s="95"/>
+      <c r="D191" s="95"/>
+      <c r="E191" s="95"/>
+      <c r="F191" s="95"/>
+      <c r="G191" s="95"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G192" s="46" t="str">
@@ -20827,7 +20836,7 @@
       <c r="B193" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C193" s="95" t="s">
+      <c r="C193" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D193" s="97"/>
@@ -21292,11 +21301,11 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A224" s="64"/>
-      <c r="B224" s="95" t="str">
+      <c r="B224" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F224)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C224" s="96"/>
+      <c r="C224" s="98"/>
       <c r="D224" s="97"/>
       <c r="E224" s="47" t="str">
         <f>IF(ISERROR(F232),"รวม","ยอดยกไป")</f>
@@ -21327,15 +21336,15 @@
       </c>
     </row>
     <row r="229" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A229" s="98" t="s">
+      <c r="A229" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="B229" s="98"/>
-      <c r="C229" s="98"/>
-      <c r="D229" s="98"/>
-      <c r="E229" s="98"/>
-      <c r="F229" s="98"/>
-      <c r="G229" s="98"/>
+      <c r="B229" s="95"/>
+      <c r="C229" s="95"/>
+      <c r="D229" s="95"/>
+      <c r="E229" s="95"/>
+      <c r="F229" s="95"/>
+      <c r="G229" s="95"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G230" s="46" t="str">
@@ -21350,7 +21359,7 @@
       <c r="B231" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C231" s="95" t="s">
+      <c r="C231" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D231" s="97"/>
@@ -21815,11 +21824,11 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A262" s="64"/>
-      <c r="B262" s="95" t="str">
+      <c r="B262" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F262)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C262" s="96"/>
+      <c r="C262" s="98"/>
       <c r="D262" s="97"/>
       <c r="E262" s="70" t="s">
         <v>147</v>
@@ -21850,6 +21859,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B262:D262"/>
+    <mergeCell ref="A191:G191"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="B224:D224"/>
+    <mergeCell ref="A229:G229"/>
+    <mergeCell ref="C231:D231"/>
     <mergeCell ref="A153:G153"/>
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="B186:D186"/>
@@ -21865,12 +21880,6 @@
     <mergeCell ref="B110:D110"/>
     <mergeCell ref="A115:G115"/>
     <mergeCell ref="C117:D117"/>
-    <mergeCell ref="B262:D262"/>
-    <mergeCell ref="A191:G191"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="B224:D224"/>
-    <mergeCell ref="A229:G229"/>
-    <mergeCell ref="C231:D231"/>
   </mergeCells>
   <pageMargins left="0.52" right="0.32" top="0.37" bottom="0.51" header="0.16" footer="0.28000000000000003"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="180" r:id="rId1"/>
@@ -22406,15 +22415,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G2" s="46" t="str">
@@ -22429,7 +22438,7 @@
       <c r="B3" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D3" s="97"/>
@@ -23255,11 +23264,11 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34" s="64"/>
-      <c r="B34" s="95" t="str">
+      <c r="B34" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F34)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C34" s="96"/>
+      <c r="C34" s="98"/>
       <c r="D34" s="97"/>
       <c r="E34" s="47" t="str">
         <f>+แนบท้ายบันทึกStartHere!E34</f>
@@ -23287,15 +23296,15 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G40" s="46" t="str">
@@ -23310,7 +23319,7 @@
       <c r="B41" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="95" t="s">
+      <c r="C41" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D41" s="97"/>
@@ -24123,11 +24132,11 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A72" s="64"/>
-      <c r="B72" s="95" t="str">
+      <c r="B72" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F72)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C72" s="96"/>
+      <c r="C72" s="98"/>
       <c r="D72" s="97"/>
       <c r="E72" s="47" t="str">
         <f>+แนบท้ายบันทึกStartHere!E72</f>
@@ -24155,15 +24164,15 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A77" s="98" t="s">
+      <c r="A77" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="98"/>
-      <c r="C77" s="98"/>
-      <c r="D77" s="98"/>
-      <c r="E77" s="98"/>
-      <c r="F77" s="98"/>
-      <c r="G77" s="98"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="95"/>
+      <c r="D77" s="95"/>
+      <c r="E77" s="95"/>
+      <c r="F77" s="95"/>
+      <c r="G77" s="95"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G78" s="46" t="str">
@@ -24178,7 +24187,7 @@
       <c r="B79" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="95" t="s">
+      <c r="C79" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D79" s="97"/>
@@ -24991,11 +25000,11 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A110" s="64"/>
-      <c r="B110" s="95" t="str">
+      <c r="B110" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F110)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C110" s="96"/>
+      <c r="C110" s="98"/>
       <c r="D110" s="97"/>
       <c r="E110" s="47" t="str">
         <f>+แนบท้ายบันทึกStartHere!E110</f>
@@ -25023,15 +25032,15 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A115" s="98" t="s">
+      <c r="A115" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="B115" s="98"/>
-      <c r="C115" s="98"/>
-      <c r="D115" s="98"/>
-      <c r="E115" s="98"/>
-      <c r="F115" s="98"/>
-      <c r="G115" s="98"/>
+      <c r="B115" s="95"/>
+      <c r="C115" s="95"/>
+      <c r="D115" s="95"/>
+      <c r="E115" s="95"/>
+      <c r="F115" s="95"/>
+      <c r="G115" s="95"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G116" s="46" t="str">
@@ -25046,7 +25055,7 @@
       <c r="B117" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C117" s="95" t="s">
+      <c r="C117" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D117" s="97"/>
@@ -25859,11 +25868,11 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A148" s="64"/>
-      <c r="B148" s="95" t="str">
+      <c r="B148" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F148)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C148" s="96"/>
+      <c r="C148" s="98"/>
       <c r="D148" s="97"/>
       <c r="E148" s="47" t="str">
         <f>+แนบท้ายบันทึกStartHere!E148</f>
@@ -25891,15 +25900,15 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A153" s="98" t="s">
+      <c r="A153" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="B153" s="98"/>
-      <c r="C153" s="98"/>
-      <c r="D153" s="98"/>
-      <c r="E153" s="98"/>
-      <c r="F153" s="98"/>
-      <c r="G153" s="98"/>
+      <c r="B153" s="95"/>
+      <c r="C153" s="95"/>
+      <c r="D153" s="95"/>
+      <c r="E153" s="95"/>
+      <c r="F153" s="95"/>
+      <c r="G153" s="95"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G154" s="46" t="str">
@@ -25914,7 +25923,7 @@
       <c r="B155" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C155" s="95" t="s">
+      <c r="C155" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D155" s="97"/>
@@ -26727,11 +26736,11 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A186" s="64"/>
-      <c r="B186" s="95" t="str">
+      <c r="B186" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F186)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C186" s="96"/>
+      <c r="C186" s="98"/>
       <c r="D186" s="97"/>
       <c r="E186" s="47" t="str">
         <f>+แนบท้ายบันทึกStartHere!E186</f>
@@ -26759,15 +26768,15 @@
       </c>
     </row>
     <row r="191" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A191" s="98" t="s">
+      <c r="A191" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="B191" s="98"/>
-      <c r="C191" s="98"/>
-      <c r="D191" s="98"/>
-      <c r="E191" s="98"/>
-      <c r="F191" s="98"/>
-      <c r="G191" s="98"/>
+      <c r="B191" s="95"/>
+      <c r="C191" s="95"/>
+      <c r="D191" s="95"/>
+      <c r="E191" s="95"/>
+      <c r="F191" s="95"/>
+      <c r="G191" s="95"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G192" s="46" t="str">
@@ -26782,7 +26791,7 @@
       <c r="B193" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C193" s="95" t="s">
+      <c r="C193" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D193" s="97"/>
@@ -27595,11 +27604,11 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A224" s="64"/>
-      <c r="B224" s="95" t="str">
+      <c r="B224" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F224)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C224" s="96"/>
+      <c r="C224" s="98"/>
       <c r="D224" s="97"/>
       <c r="E224" s="47" t="str">
         <f>+แนบท้ายบันทึกStartHere!E224</f>
@@ -27627,15 +27636,15 @@
       </c>
     </row>
     <row r="229" spans="1:7" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A229" s="98" t="s">
+      <c r="A229" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="B229" s="98"/>
-      <c r="C229" s="98"/>
-      <c r="D229" s="98"/>
-      <c r="E229" s="98"/>
-      <c r="F229" s="98"/>
-      <c r="G229" s="98"/>
+      <c r="B229" s="95"/>
+      <c r="C229" s="95"/>
+      <c r="D229" s="95"/>
+      <c r="E229" s="95"/>
+      <c r="F229" s="95"/>
+      <c r="G229" s="95"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G230" s="46" t="str">
@@ -27650,7 +27659,7 @@
       <c r="B231" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C231" s="95" t="s">
+      <c r="C231" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D231" s="97"/>
@@ -28463,11 +28472,11 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A262" s="64"/>
-      <c r="B262" s="95" t="str">
+      <c r="B262" s="96" t="str">
         <f>"( "&amp;BAHTTEXT(F262)&amp;" )"</f>
         <v>( ศูนย์บาทถ้วน )</v>
       </c>
-      <c r="C262" s="96"/>
+      <c r="C262" s="98"/>
       <c r="D262" s="97"/>
       <c r="E262" s="47" t="str">
         <f>+แนบท้ายบันทึกStartHere!E262</f>
@@ -28496,6 +28505,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B262:D262"/>
+    <mergeCell ref="A191:G191"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="B224:D224"/>
+    <mergeCell ref="A229:G229"/>
+    <mergeCell ref="C231:D231"/>
     <mergeCell ref="A153:G153"/>
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="B186:D186"/>
@@ -28511,12 +28526,6 @@
     <mergeCell ref="B110:D110"/>
     <mergeCell ref="A115:G115"/>
     <mergeCell ref="C117:D117"/>
-    <mergeCell ref="B262:D262"/>
-    <mergeCell ref="A191:G191"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="B224:D224"/>
-    <mergeCell ref="A229:G229"/>
-    <mergeCell ref="C231:D231"/>
   </mergeCells>
   <pageMargins left="0.59" right="0.36" top="0.37" bottom="0.51" header="0.16" footer="0.28000000000000003"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="180" r:id="rId1"/>
